--- a/publication/web-root/matchsync/0.1.0/observations-summary.xlsx
+++ b/publication/web-root/matchsync/0.1.0/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="65">
   <si>
     <t>Profile</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>LOINC#883-9</t>
+  </si>
+  <si>
+    <t>ms-aborhgroup-observation</t>
+  </si>
+  <si>
+    <t>MSABORHObservation</t>
+  </si>
+  <si>
+    <t>LOINC#882-1</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -319,10 +328,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -331,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2515,22 +2524,22 @@
         <v>50</v>
       </c>
       <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="F63" t="s" s="2">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -2544,28 +2553,28 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F64" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="G64" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
+      <c r="H64" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2585,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -2594,21 +2603,56 @@
         <v>61</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K65" t="s" s="2">
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>14</v>
       </c>
     </row>
